--- a/expense_list2019/201906_expense_list.xlsx
+++ b/expense_list2019/201906_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="505">
   <si>
     <t>nid</t>
   </si>
@@ -77,21 +77,1440 @@
     <t>exec_amount</t>
   </si>
   <si>
+    <t>2019년 6월 서울시본청 스마트도시정책관 스마트도시담당관 업무추진비 - 전체</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18135063</t>
+  </si>
+  <si>
+    <t>서울시본청</t>
+  </si>
+  <si>
+    <t>스마트도시정책관</t>
+  </si>
+  <si>
+    <t>스마트도시담당관</t>
+  </si>
+  <si>
+    <t>스마트도시정책관 스마트도시담당관</t>
+  </si>
+  <si>
+    <t>2019-06-29 13:00</t>
+  </si>
+  <si>
+    <t>강남구 파티오나인 5층</t>
+  </si>
+  <si>
+    <t>경조사비 지급(축의금)</t>
+  </si>
+  <si>
+    <t>소속직원 1인</t>
+  </si>
+  <si>
+    <t>현금</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:00</t>
+  </si>
+  <si>
+    <t>경북 구미푸른요양병원 장례식장</t>
+  </si>
+  <si>
+    <t>경조사비 지급(부의금)</t>
+  </si>
+  <si>
+    <t>2019-06-03 12:39</t>
+  </si>
+  <si>
+    <t>삼우정(서울특별시 중구 서소문로 134-12)</t>
+  </si>
+  <si>
+    <t>블록체인 행정 적용 확대를 위한 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시기획팀장 등 10인</t>
+  </si>
+  <si>
+    <t>카드</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:00</t>
+  </si>
+  <si>
+    <t>라 칸티나(서울특별시 중구 을지로 19 (을지로1가))</t>
+  </si>
+  <si>
+    <t>엠보팅활성화를 위한 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시정책관 등 13인</t>
+  </si>
+  <si>
+    <t>2019-06-05 19:52</t>
+  </si>
+  <si>
+    <t>열빈(광화문점)(서울특별시 중구 세종대로21길 22(태평로1가))</t>
+  </si>
+  <si>
+    <t>Seoul Digital Summit 개최 논의를 위한 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시기획팀장 등 9인</t>
+  </si>
+  <si>
+    <t>2019-06-07 12:50</t>
+  </si>
+  <si>
+    <t>훈민정(서울시 중구 서소문로 132)</t>
+  </si>
+  <si>
+    <t>사물인터넷 도시조성을 위한 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시정책관 등 10인</t>
+  </si>
+  <si>
+    <t>2019-06-11 12:23</t>
+  </si>
+  <si>
+    <t>서울삼계탕(서울 중구 남대문로 1길 57)</t>
+  </si>
+  <si>
+    <t>현안업무 추진 직원 격려를 위한 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시기획팀장 등 30인</t>
+  </si>
+  <si>
+    <t>2019-06-14 19:22</t>
+  </si>
+  <si>
+    <t>㈜바닷가작은부엌덕수궁점(서울시 중구 덕수궁길7(태평로2가))</t>
+  </si>
+  <si>
+    <t>스마트시티 업무추진 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-17 12:28</t>
+  </si>
+  <si>
+    <t>오리마당(서울 중구 세종대로 92)</t>
+  </si>
+  <si>
+    <t>서울디지털재단 현안 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시정책관 등 6인</t>
+  </si>
+  <si>
+    <t>2019-06-21 13:05</t>
+  </si>
+  <si>
+    <t>스패뉴 시청지점(서울특별시 중구 태평로2가 362-1)</t>
+  </si>
+  <si>
+    <t>IoT도시데이터 현안과제 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시기획팀장 등 5인</t>
+  </si>
+  <si>
+    <t>2019-06-21 20:30</t>
+  </si>
+  <si>
+    <t>뚜리삼(제주흑돈)(서울시 중구 청계천로 8)</t>
+  </si>
+  <si>
+    <t>WeGO 현안관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-24 12:29</t>
+  </si>
+  <si>
+    <t>스마트도시데이터 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-25 12:59</t>
+  </si>
+  <si>
+    <t>스마트도시정책관 등 15인</t>
+  </si>
+  <si>
+    <t>2019-06-27 19:40</t>
+  </si>
+  <si>
+    <t>만복림(서울시 중구 무교로 17-17)</t>
+  </si>
+  <si>
+    <t>스마트도시위원회 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시정책관 등 20인</t>
+  </si>
+  <si>
+    <t>2019-06-27 19:41</t>
+  </si>
+  <si>
+    <t>2019-06-04 11:59</t>
+  </si>
+  <si>
+    <t>식탁(서울 종로구 사직로8길 34)</t>
+  </si>
+  <si>
+    <t>사물인터넷도시조성 현안 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>스마트도시담당관 등 15인</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:27</t>
+  </si>
+  <si>
+    <t>미스터피자&amp;식탁 이대점(서울 서대문구 이화여대8길 10)</t>
+  </si>
+  <si>
+    <t>스마트도시담당관 등 26인</t>
+  </si>
+  <si>
+    <t>2019-06-10 18:13</t>
+  </si>
+  <si>
+    <t>한국피자헛 남부터미널점 2호점(서울 서초구 서초중앙로 26)</t>
+  </si>
+  <si>
+    <t>스마트도시담당관 등 16인</t>
+  </si>
+  <si>
+    <t>2019-06-10 20:39</t>
+  </si>
+  <si>
+    <t>한국피자헛 증산역2호점(서울 은평구 증산로 253)</t>
+  </si>
+  <si>
+    <t>스마트도시담당관 등 5인</t>
+  </si>
+  <si>
+    <t>2019-06-10 21:28</t>
+  </si>
+  <si>
+    <t>SHANGHAI GUANG CHENG(국외 중국 상하이)</t>
+  </si>
+  <si>
+    <t>스마트시티협력관련 유관기관 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:38</t>
+  </si>
+  <si>
+    <t>SI CHUAN HAI DI LAO CAN Y(국외 중국 상하이 하이디라오)</t>
+  </si>
+  <si>
+    <t>CES ASIA 관계자 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 상수도사업본부 북부수도사업소 요금과 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18134439</t>
+  </si>
+  <si>
+    <t>사업소</t>
+  </si>
+  <si>
+    <t>상수도사업본부</t>
+  </si>
+  <si>
+    <t>북부수도사업소</t>
+  </si>
+  <si>
+    <t>요금과</t>
+  </si>
+  <si>
+    <t>북부수도사업소요금과</t>
+  </si>
+  <si>
+    <t>2019-06-20 12:12</t>
+  </si>
+  <si>
+    <t>고메당 강북구 덕릉로40길</t>
+  </si>
+  <si>
+    <t>간담회 개최</t>
+  </si>
+  <si>
+    <t>5명</t>
+  </si>
+  <si>
+    <t>2019-06-18 12:02</t>
+  </si>
+  <si>
+    <t>수유손칼국수 강북구 수유동 167-3</t>
+  </si>
+  <si>
+    <t>6명</t>
+  </si>
+  <si>
+    <t>2019-06-04 12:16</t>
+  </si>
+  <si>
+    <t>2019년 6월 서울시본청 시민건강국 보건의료정책과 업무추진비 - 전체</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18124320</t>
+  </si>
+  <si>
+    <t>시민건강국</t>
+  </si>
+  <si>
+    <t>보건의료정책과</t>
+  </si>
+  <si>
+    <t>시민건강국 보건의료정책과</t>
+  </si>
+  <si>
+    <t>2019-06-28 12:00</t>
+  </si>
+  <si>
+    <t>영덕회식당시청점(중구 무교로 32)</t>
+  </si>
+  <si>
+    <t>의약품, 의약외품, 의료기기 행정처분 관련 간담회</t>
+  </si>
+  <si>
+    <t>의약무팀장 등 12명</t>
+  </si>
+  <si>
+    <t>2019-06-28 12:20</t>
+  </si>
+  <si>
+    <t>동원VIP참치(중구 세종대로 22길)</t>
+  </si>
+  <si>
+    <t>중증응급환자 응급체계 구축 관련 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 3명</t>
+  </si>
+  <si>
+    <t>2019-06-27 12:30</t>
+  </si>
+  <si>
+    <t>강가(중구 세종대로 136)</t>
+  </si>
+  <si>
+    <t>서울시립대 보건대학원 관련 간담회 개최</t>
+  </si>
+  <si>
+    <t>보건의료정책과장 등 5명</t>
+  </si>
+  <si>
+    <t>2019-06-27 12:00</t>
+  </si>
+  <si>
+    <t>제주본가 (중구 을지로1길 8</t>
+  </si>
+  <si>
+    <t>[제로]현안업무 추진 직원 격려 오찬 실시</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 29명</t>
+  </si>
+  <si>
+    <t>2019-06-26 19:00</t>
+  </si>
+  <si>
+    <t>흑산도홍어 (중구 무교로 6</t>
+  </si>
+  <si>
+    <t>[제로]의약업소 유통지도 관련 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>의약무팀장 등 9명</t>
+  </si>
+  <si>
+    <t>2019-06-24 17:30</t>
+  </si>
+  <si>
+    <t>금강산(중구 세종대로20길 15</t>
+  </si>
+  <si>
+    <t>[제로]시민건강국 현안업무 관련 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 7명</t>
+  </si>
+  <si>
+    <t>2019-06-23 14:00</t>
+  </si>
+  <si>
+    <t>해당없음</t>
+  </si>
+  <si>
+    <t>소속 상근직원 경조사비 지급</t>
+  </si>
+  <si>
+    <t>소속 상근직원</t>
+  </si>
+  <si>
+    <t>2019-06-21 12:00</t>
+  </si>
+  <si>
+    <t>열빈 광화문점 (중구 세종대로 21길)</t>
+  </si>
+  <si>
+    <t>[제로]현안업무 추진직원 격려 간담회비 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 6명</t>
+  </si>
+  <si>
+    <t>2019-06-19 12:00</t>
+  </si>
+  <si>
+    <t>구팡돌할매보쌈(중구 덕수궁길 7</t>
+  </si>
+  <si>
+    <t>[제로]287회 상임위 관련 오찬 간담회비 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 11명</t>
+  </si>
+  <si>
+    <t>2019-06-18 19:30</t>
+  </si>
+  <si>
+    <t>동해일식 (중구 무교로 16</t>
+  </si>
+  <si>
+    <t>[제로]장기기증 활성화 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-18 12:00</t>
+  </si>
+  <si>
+    <t>라그릴리아 (종로구 종로1가</t>
+  </si>
+  <si>
+    <t>시민건강국 현안업무 추진직원 격려 간담회비 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 4명</t>
+  </si>
+  <si>
+    <t>2019-06-17 18:50</t>
+  </si>
+  <si>
+    <t>흑산도홍어(중구 무교로 6</t>
+  </si>
+  <si>
+    <t>[제로]현안업무 수행 직원 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>보건정책팀 주무관 등 9명</t>
+  </si>
+  <si>
+    <t>2019-06-17 19:30</t>
+  </si>
+  <si>
+    <t>우도일식  (중구 세종대로 124</t>
+  </si>
+  <si>
+    <t>[제로]시민건강국 현안사항 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-17 12:50</t>
+  </si>
+  <si>
+    <t>남포면옥 (중구 을지로3길 24 )</t>
+  </si>
+  <si>
+    <t>[제로]정신건강복지센터 운영 관련 간담회 개최</t>
+  </si>
+  <si>
+    <t>보건의료정책과장 등 10명</t>
+  </si>
+  <si>
+    <t>2019-06-14 19:00</t>
+  </si>
+  <si>
+    <t>대가  (중구 을지로1길 15</t>
+  </si>
+  <si>
+    <t>[제로]시립병원 공공성 강화 등 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>시립병원운영팀장 등 5명</t>
+  </si>
+  <si>
+    <t>2019-06-14 12:30</t>
+  </si>
+  <si>
+    <t>우도일식 (중구 세종대로 124)</t>
+  </si>
+  <si>
+    <t>[제로]응급의료체계 협의 등 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>응급의료관리팀 주무관 등 10명</t>
+  </si>
+  <si>
+    <t>2019-06-14 12:00</t>
+  </si>
+  <si>
+    <t>흑산도홍어 (중구 무교로 6)</t>
+  </si>
+  <si>
+    <t>[제로]건강돌봄서비스 자치구 실무자 간담회비 지급</t>
+  </si>
+  <si>
+    <t>공공보건팀장 등 20명</t>
+  </si>
+  <si>
+    <t>남도미가(무교점) (중구 무교로 16)</t>
+  </si>
+  <si>
+    <t>[제로]시민건강국 현안업무 추진직원 격려 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-13 12:40</t>
+  </si>
+  <si>
+    <t>광화문국밥(중구 세종대로21길 53)</t>
+  </si>
+  <si>
+    <t>287회 정례회 제4차 본회의 관련 오찬 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-13 19:00</t>
+  </si>
+  <si>
+    <t>대가(중구 을지로1길 15</t>
+  </si>
+  <si>
+    <t>[제로]현안업무 처리 직원 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>보건정책팀 주무관 등 3명</t>
+  </si>
+  <si>
+    <t>2019-06-12 19:00</t>
+  </si>
+  <si>
+    <t>목포세발낙지 (중구 남대문로9길 20</t>
+  </si>
+  <si>
+    <t>[제로]자살예방사업 관련 간담회 개최</t>
+  </si>
+  <si>
+    <t>정신보건팀장 등 8명</t>
+  </si>
+  <si>
+    <t>2019-06-11 12:00</t>
+  </si>
+  <si>
+    <t>본도시락 회현역점 (중구 소공로 35</t>
+  </si>
+  <si>
+    <t>건강돌봄 영양매뉴얼 개발 관련 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>공공보건팀장 등 7명</t>
+  </si>
+  <si>
+    <t>2019-06-11 18:30</t>
+  </si>
+  <si>
+    <t>대가 (중구 을지로1길)</t>
+  </si>
+  <si>
+    <t>보라매병원 운영 관련 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>보건의료정책과장 등 4명</t>
+  </si>
+  <si>
+    <t>2019-06-11 19:00</t>
+  </si>
+  <si>
+    <t>오징어풍경(중구 다동길 5 )</t>
+  </si>
+  <si>
+    <t>[제로]정신건강증진 관련 간담회 개최</t>
+  </si>
+  <si>
+    <t>정신보건팀장 등 18명</t>
+  </si>
+  <si>
+    <t>2019-06-10 12:00</t>
+  </si>
+  <si>
+    <t>반포식스 서울시청점 (중구 무교로 13 )</t>
+  </si>
+  <si>
+    <t>서남병원 운영 관련 간담회 개최</t>
+  </si>
+  <si>
+    <t>보건의료정책과장 등 8명</t>
+  </si>
+  <si>
+    <t>2019-06-07 19:00</t>
+  </si>
+  <si>
+    <t>정을순황금참치 (은평구 응암동 589-37)</t>
+  </si>
+  <si>
+    <t>의약품 등 품질관리 관련 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 13명</t>
+  </si>
+  <si>
+    <t>2019-06-06 12:49</t>
+  </si>
+  <si>
+    <t>참숯골(중구 무교로16)</t>
+  </si>
+  <si>
+    <t>진상대책위원회 워크숍에 따른 간담회비 지급</t>
+  </si>
+  <si>
+    <t>진상대책위원장 등 12명</t>
+  </si>
+  <si>
+    <t>2019-06-05 19:00</t>
+  </si>
+  <si>
+    <t>남도미가 (중구 무교로 16)</t>
+  </si>
+  <si>
+    <t>국립중앙의료원 이전 관련 관계기관 간담회</t>
+  </si>
+  <si>
+    <t>시립병원운영팀 담당주무관 등 2명</t>
+  </si>
+  <si>
+    <t>2019-06-05 12:00</t>
+  </si>
+  <si>
+    <t>태진옥(중구 무료로 17-25)</t>
+  </si>
+  <si>
+    <t>[제로]정신재활 시설 관계자 간담회 개최</t>
+  </si>
+  <si>
+    <t>정신보건팀장 등 19명</t>
+  </si>
+  <si>
+    <t>2019-06-04 12:00</t>
+  </si>
+  <si>
+    <t>을밀대(마포구 숭문길 24)</t>
+  </si>
+  <si>
+    <t>서남병원 종합병원 승격기념식 참석 직원 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>시민건강국장 등 5명</t>
+  </si>
+  <si>
+    <t>신정동쭈꾸미(양천구 신정동 1183-8)</t>
+  </si>
+  <si>
+    <t>서남병원 종합병원 승격기념식 행사 간담회 비용 지급</t>
+  </si>
+  <si>
+    <t>시립병원팀 실무사무관 등 6명</t>
+  </si>
+  <si>
+    <t>2019-06-03 12:00</t>
+  </si>
+  <si>
+    <t>열빈 광화문점  (중구 태평로1가 소재)</t>
+  </si>
+  <si>
+    <t>2019년 6월 서울시본청 지역발전본부 서북권사업과 업무추진비 - 시책추진 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18124319</t>
+  </si>
+  <si>
+    <t>지역발전본부</t>
+  </si>
+  <si>
+    <t>서북권사업과</t>
+  </si>
+  <si>
+    <t>2019-06-12 16:48</t>
+  </si>
+  <si>
+    <t>주플라워 종로구 종로1가 24</t>
+  </si>
+  <si>
+    <t>2019년 하반기 공로연수 대상자 직원격려</t>
+  </si>
+  <si>
+    <t>개발관리팀장 1명</t>
+  </si>
+  <si>
+    <t>2019-06-12 15:10</t>
+  </si>
+  <si>
+    <t>미스터피자 중구 무교동 1번지</t>
+  </si>
+  <si>
+    <t>287회 시의회 정례회 준비 직원 격로 다과비 지급</t>
+  </si>
+  <si>
+    <t>서북권사업과 전 직원</t>
+  </si>
+  <si>
+    <t>2019-06-04 15:21</t>
+  </si>
+  <si>
+    <t>서울시청매점 중구 서소문동 37</t>
+  </si>
+  <si>
+    <t>탕비실 소모품(차류, 커피류 등)비용 지급</t>
+  </si>
+  <si>
+    <t>2019-06-27 13:17</t>
+  </si>
+  <si>
+    <t>공정무역 지구마을 중구 세종대로 10</t>
+  </si>
+  <si>
+    <t>서북아카데미 용역 관련 차담회비 지급</t>
+  </si>
+  <si>
+    <t>개발기획팀장 외 2명</t>
+  </si>
+  <si>
+    <t>2019-06-26 12:48</t>
+  </si>
+  <si>
+    <t>스패뉴 서울시청점 중구 덕수궁길 7</t>
+  </si>
+  <si>
+    <t>시의회 도시관리위원회 업무 협의 간담회비 지급</t>
+  </si>
+  <si>
+    <t>서북권사업과장 외 2명</t>
+  </si>
+  <si>
+    <t>2019-06-26 13:07</t>
+  </si>
+  <si>
+    <t>만복림 중구 무교로 17-17)</t>
+  </si>
+  <si>
+    <t>지역거점 발전전략 완료보고서 검토 간담회비 지급</t>
+  </si>
+  <si>
+    <t>개발기획팀장 외 7명</t>
+  </si>
+  <si>
+    <t>2019-06-21 12:01</t>
+  </si>
+  <si>
+    <t>서울불고기 중구 남대문로 9길 40</t>
+  </si>
+  <si>
+    <t>DMC 사전협상 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>서북권사업과장 외 8명</t>
+  </si>
+  <si>
+    <t>2019-06-17 10:17</t>
+  </si>
+  <si>
+    <t>지구마을 중구 세종대로 10</t>
+  </si>
+  <si>
+    <t>코레일 업무 협약 관련 차담회비 지급</t>
+  </si>
+  <si>
+    <t>서북권사업과장 외 1명</t>
+  </si>
+  <si>
+    <t>2019-06-14 11:54</t>
+  </si>
+  <si>
+    <t>원주추어탕 중구 무교로 17-27</t>
+  </si>
+  <si>
+    <t>수색역 일대 지구단위 계획 수립 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>2019-06-14 11:33</t>
+  </si>
+  <si>
+    <t>서북권종합발전계획 수립 관련 부서간 협의 간담회비 지급</t>
+  </si>
+  <si>
+    <t>서북권사업과장 외 7명</t>
+  </si>
+  <si>
+    <t>2019-06-10 20:22</t>
+  </si>
+  <si>
+    <t>양가곱창 종로구 종로 19)</t>
+  </si>
+  <si>
+    <t>코레일 업무 협약 관련 간담회비 지급</t>
+  </si>
+  <si>
+    <t>개발기획팀장 외 4명</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 데이터센터 기획관리과 업무추진비 - 기관운영 시책추진 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18124318</t>
+  </si>
+  <si>
+    <t>데이터센터</t>
+  </si>
+  <si>
+    <t>기획관리과</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:17</t>
+  </si>
+  <si>
+    <t>리앙빈안산</t>
+  </si>
+  <si>
+    <t>데이터센터휴게실원두커피구입비지급</t>
+  </si>
+  <si>
+    <t>데이터센터 전직원</t>
+  </si>
+  <si>
+    <t>가진항(서초구서초대로50길93)</t>
+  </si>
+  <si>
+    <t>정보통신시설유지관련간담회비지급</t>
+  </si>
+  <si>
+    <t>소장 김현규외 3명</t>
+  </si>
+  <si>
+    <t>2019-06-26 20:00</t>
+  </si>
+  <si>
+    <t>여수바다(중구을지로3길21)</t>
+  </si>
+  <si>
+    <t>정보시스템유지관리관련간담회비지급</t>
+  </si>
+  <si>
+    <t>소장 김현규외 5명</t>
+  </si>
+  <si>
+    <t>2019-06-25 20:00</t>
+  </si>
+  <si>
+    <t>해담(서초구사임당로39)</t>
+  </si>
+  <si>
+    <t>클라우드센터운영관련간담회비지급</t>
+  </si>
+  <si>
+    <t>소장 김현규외 9명</t>
+  </si>
+  <si>
+    <t>2019-06-24 12:00</t>
+  </si>
+  <si>
+    <t>신가원(중구을지로1길10)</t>
+  </si>
+  <si>
+    <t>스마트도시정책관현안회의참석자간담회비지급</t>
+  </si>
+  <si>
+    <t>소장 김현규외 1명</t>
+  </si>
+  <si>
+    <t>2019-06-20 12:00</t>
+  </si>
+  <si>
+    <t>육대장(서초구남부순환로323길1)</t>
+  </si>
+  <si>
+    <t>현안업무추진격려간담회비지급</t>
+  </si>
+  <si>
+    <t>삼우정(중구서소문로134-12)</t>
+  </si>
+  <si>
+    <t>2019-06-14 19:30</t>
+  </si>
+  <si>
+    <t>어미가(중구서소문로202)</t>
+  </si>
+  <si>
+    <t>정보자원통합관리담당자간담회비지급</t>
+  </si>
+  <si>
+    <t>소장 김현규외 2명</t>
+  </si>
+  <si>
+    <t>2019-06-13 15:00</t>
+  </si>
+  <si>
+    <t>한국피자헛(서초구효령로237)</t>
+  </si>
+  <si>
+    <t>데이터센터직원격려음료구입비지급</t>
+  </si>
+  <si>
+    <t>소장 김련규외 10명</t>
+  </si>
+  <si>
+    <t>2019-06-13 12:00</t>
+  </si>
+  <si>
+    <t>데이터센터기획관리과</t>
+  </si>
+  <si>
+    <t>데이터센터직원경조사비지급</t>
+  </si>
+  <si>
+    <t>직원1명</t>
+  </si>
+  <si>
+    <t>2019-06-10 20:00</t>
+  </si>
+  <si>
+    <t>서초손칼국시(서초구효령로305)</t>
+  </si>
+  <si>
+    <t>급여관리시스템유지관리관련간담회비지급</t>
+  </si>
+  <si>
+    <t>2019-06-05 20:00</t>
+  </si>
+  <si>
+    <t>성광수산(송파구양재대로932)</t>
+  </si>
+  <si>
+    <t>소장 김현규외 7명</t>
+  </si>
+  <si>
+    <t>2019-06-04 20:00</t>
+  </si>
+  <si>
+    <t>소장 김현규외 4명</t>
+  </si>
+  <si>
+    <t>찜통(서초구효령로276)</t>
+  </si>
+  <si>
+    <t>차량시설유지관리담당자간담회비지급</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 서울역사박물관 학예연구부 청계천박물관 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18124317</t>
+  </si>
+  <si>
+    <t>서울역사박물관</t>
+  </si>
+  <si>
+    <t>학예연구부</t>
+  </si>
+  <si>
+    <t>청계천박물관</t>
+  </si>
+  <si>
+    <t>서울역사박물관 청계천박물관</t>
+  </si>
+  <si>
+    <t>2019-06-28 15:35</t>
+  </si>
+  <si>
+    <t>이마트 왕십리점 (성동구 왕십리광장로17)</t>
+  </si>
+  <si>
+    <t>내방인 접객 및 부서운영을 위한 물품 구입(커피 등)</t>
+  </si>
+  <si>
+    <t>청계천박물관장 등 32명 (직원7, 뉴딜일자리5, 공무촉탁직 20)</t>
+  </si>
+  <si>
+    <t>2019-06-10 11:03</t>
+  </si>
+  <si>
+    <t>청계천박물관장 등 31명 (직원6, 뉴딜일자리5, 공무촉탁직 20)</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 상수도사업본부 강동수도사업소 업무추진비 - 전체</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18124315</t>
+  </si>
+  <si>
+    <t>강동수도사업소</t>
+  </si>
+  <si>
+    <t>강동수도사업소 행정지원과</t>
+  </si>
+  <si>
+    <t>2019-06-10 12:40</t>
+  </si>
+  <si>
+    <t>태연나이스 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>내방민원인 접대 및 직원 간담회용 커피 구매</t>
+  </si>
+  <si>
+    <t>행정지원과장 등 25명</t>
+  </si>
+  <si>
+    <t>2019-06-14 13:18</t>
+  </si>
+  <si>
+    <t>파리바게트 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>직원 소통 및 격려 간식 구매비용 지급</t>
+  </si>
+  <si>
+    <t>2019-06-14 20:35</t>
+  </si>
+  <si>
+    <t>온누리장작구이             (경기도 남양주시)</t>
+  </si>
+  <si>
+    <t>행정지원과 직원 워크샵 행삽비용</t>
+  </si>
+  <si>
+    <t>강동수도사업소 현장민원과</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:49</t>
+  </si>
+  <si>
+    <t>태연나이스마트              (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>방문민원 직원간담회 등 행사 비용</t>
+  </si>
+  <si>
+    <t>현장민원과장 등 16명</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:27</t>
+  </si>
+  <si>
+    <t>태연나이스마트               (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>현장민원과장 등 15명</t>
+  </si>
+  <si>
+    <t>강동수도사업소 요금과</t>
+  </si>
+  <si>
+    <t>2019-06-14 12:26</t>
+  </si>
+  <si>
+    <t>채선당                        (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>상반기 퇴직직원 및 현안업무에 고생하는 직원소통 간담회 실시비용</t>
+  </si>
+  <si>
+    <t>요금과장 등 20명</t>
+  </si>
+  <si>
+    <t>강동수도사업소 급수운영과</t>
+  </si>
+  <si>
+    <t>2019-06-13 15:52</t>
+  </si>
+  <si>
+    <t>이삭토스트 (성내동320-7)</t>
+  </si>
+  <si>
+    <t>직원소통 간담회 비용</t>
+  </si>
+  <si>
+    <t>급수운영과 직원</t>
+  </si>
+  <si>
+    <t>2019-06-12 12:00</t>
+  </si>
+  <si>
+    <t>나이스마트 (강동구  성내로5길)</t>
+  </si>
+  <si>
+    <t>내방 민원 접대 및 직원 간담회용  차 구매</t>
+  </si>
+  <si>
+    <t>내방민원 및 급수운영과 직원</t>
+  </si>
+  <si>
+    <t>2019-06-10 11:49</t>
+  </si>
+  <si>
+    <t>토팡카 (강동구  성내로5길)</t>
+  </si>
+  <si>
+    <t>내방직원 접대 및 직원 간담회용  차 구매</t>
+  </si>
+  <si>
+    <t>강동수도사업소 시설관리과</t>
+  </si>
+  <si>
+    <t>2019-06-13 15:25</t>
+  </si>
+  <si>
+    <t>나이스 마트 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>시설관리과 전직원</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:54</t>
+  </si>
+  <si>
+    <t>카페밀 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>1일 현장수도사업소 아리수 홍보 참여직원 소통 간담회</t>
+  </si>
+  <si>
+    <t>소장 등 10명</t>
+  </si>
+  <si>
+    <t>2019-06-18 20:32</t>
+  </si>
+  <si>
+    <t>조앤비푸드 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>신속한 조기집행관련 직원과 소통 간담회</t>
+  </si>
+  <si>
+    <t>소장 등 7명</t>
+  </si>
+  <si>
+    <t>2019-06-18 12:22</t>
+  </si>
+  <si>
+    <t>강동복집 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>상반기 퇴직예정 직원과 소통 간담회</t>
+  </si>
+  <si>
+    <t>소장 등 4명</t>
+  </si>
+  <si>
+    <t>2019-06-17 12:59</t>
+  </si>
+  <si>
+    <t>주문진 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>사업소장 회의자료 작성관련 소통 간담회</t>
+  </si>
+  <si>
+    <t>2019-06-13 12:48</t>
+  </si>
+  <si>
+    <t>청해진 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>19년 신규임용직원과 소통 간담회</t>
+  </si>
+  <si>
+    <t>소장 등 12명</t>
+  </si>
+  <si>
+    <t>2019-06-04 20:26</t>
+  </si>
+  <si>
+    <t>엉터리생고기 (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>부서별 주요업무 계획 작성관련 소통 간담회</t>
+  </si>
+  <si>
+    <t>소장 등 13명</t>
+  </si>
+  <si>
+    <t>2019-06-04 12:01</t>
+  </si>
+  <si>
+    <t>메차쿠차                (강동구 성내동)</t>
+  </si>
+  <si>
+    <t>노조집행부와 원활한 소통간담회</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 물재생센터 난지물재생센터 시설보수과 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18124314</t>
+  </si>
+  <si>
+    <t>물재생센터</t>
+  </si>
+  <si>
+    <t>난지물재생센터</t>
+  </si>
+  <si>
+    <t>시설보수과</t>
+  </si>
+  <si>
+    <t>난지물재생센터  시설보수과</t>
+  </si>
+  <si>
+    <t>2019-06-05 15:27</t>
+  </si>
+  <si>
+    <t>강서농협하나로마트 서울시 강서구 방화동 829-2</t>
+  </si>
+  <si>
+    <t>탕비용품 구매</t>
+  </si>
+  <si>
+    <t>조선행과장외 23명</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 인재개발원 인재양성과 업무추진비 - 시책추진 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18113746</t>
+  </si>
+  <si>
+    <t>인재개발원</t>
+  </si>
+  <si>
+    <t>인재양성과</t>
+  </si>
+  <si>
+    <t>인재개발원 인재양성과</t>
+  </si>
+  <si>
+    <t>2019-06-28 13:28</t>
+  </si>
+  <si>
+    <t>백마김씨네 (강남구 남부순환로)</t>
+  </si>
+  <si>
+    <t>상반기 함께서울 공감마당 운영 관련 간담회</t>
+  </si>
+  <si>
+    <t>인재양성과장 외 7명</t>
+  </si>
+  <si>
+    <t>2019-06-17 12:25</t>
+  </si>
+  <si>
+    <t>메기대감 (서초구 남부순환로)</t>
+  </si>
+  <si>
+    <t>제2기 6급승진자과정 운영 관련 간담회</t>
+  </si>
+  <si>
+    <t>한솔집 (서초구 남부순환로)</t>
+  </si>
+  <si>
+    <t>4~5기 실무리더십 과정 운영 관련 간담회</t>
+  </si>
+  <si>
+    <t>교육운영팀장 외 6명</t>
+  </si>
+  <si>
+    <t>2019-06-07 12:00</t>
+  </si>
+  <si>
+    <t>원산생태 (서초구 강남대로)</t>
+  </si>
+  <si>
+    <t>5월 재직자 단기과정 운영 관련 간담회 실시</t>
+  </si>
+  <si>
+    <t>인재양성과장 외 6명</t>
+  </si>
+  <si>
+    <t>2019-06-05 12:43</t>
+  </si>
+  <si>
+    <t>한소반청계산 (서초구 청계산로)</t>
+  </si>
+  <si>
+    <t>제5기 팀장리더십과정 운영 관련 간담회</t>
+  </si>
+  <si>
+    <t>인재양성과장 외 5명</t>
+  </si>
+  <si>
+    <t>우면산버드나무집 (서초구 남부순환로)</t>
+  </si>
+  <si>
+    <t>5월 재직자과정 운영 검토회의 관련 간담회</t>
+  </si>
+  <si>
+    <t>2019-06-03 12:01</t>
+  </si>
+  <si>
+    <t>장꼬방 (서초구 효령로)</t>
+  </si>
+  <si>
+    <t>제1기 상생과 협력을 위한 갈등관리 과정 운영 관련 간담회</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 도시기반시설본부 시설국 안전관리과 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18104223</t>
+  </si>
+  <si>
+    <t>도시기반시설본부</t>
+  </si>
+  <si>
+    <t>시설국</t>
+  </si>
+  <si>
+    <t>안전관리과</t>
+  </si>
+  <si>
+    <t>도시기반시설본부 시설국 안전관리과</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:36</t>
+  </si>
+  <si>
+    <t>㈜해피머니아이엔씨</t>
+  </si>
+  <si>
+    <t>상반기 직원격려 문화상품권 구매</t>
+  </si>
+  <si>
+    <t>2019-06-21 16:45</t>
+  </si>
+  <si>
+    <t>롯데마트(서울중구 한강대로 405)</t>
+  </si>
+  <si>
+    <t>부서 방문 민원응대용 및 공사현장 직원 교육용(커피 다과 등)</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 서부공원녹지사업소 환경보전과 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18104222</t>
+  </si>
+  <si>
+    <t>서부공원녹지사업소</t>
+  </si>
+  <si>
+    <t>환경보전과</t>
+  </si>
+  <si>
+    <t>푸른도시국 서부공원녹지사업소 환경보전과</t>
+  </si>
+  <si>
+    <t>2019-06-26 15:15</t>
+  </si>
+  <si>
+    <t>다농마트</t>
+  </si>
+  <si>
+    <t>사무실 내방객 접대용 커피 및 차 구매</t>
+  </si>
+  <si>
+    <t>환경보전과장 외 8명</t>
+  </si>
+  <si>
+    <t>2019-06-03 16:12</t>
+  </si>
+  <si>
+    <t>전주식당</t>
+  </si>
+  <si>
+    <t>직원과의 소통의 시간 식비</t>
+  </si>
+  <si>
+    <t>제로페이</t>
+  </si>
+  <si>
+    <t>2019-06-03 15:43</t>
+  </si>
+  <si>
+    <t>알파문구(마포구청점)</t>
+  </si>
+  <si>
+    <t>사무용품 구매</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 중부공원녹지사업소 공원여가과 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18082454</t>
+  </si>
+  <si>
+    <t>중부공원녹지사업소</t>
+  </si>
+  <si>
+    <t>공원여가과</t>
+  </si>
+  <si>
+    <t>중부공원녹지사업소  공원여가과</t>
+  </si>
+  <si>
+    <t>2019-06-21 11:07</t>
+  </si>
+  <si>
+    <t>한화역사㈜ 롯데마트 서울역점</t>
+  </si>
+  <si>
+    <t>부서운영 물품 구입</t>
+  </si>
+  <si>
+    <t>공원여가과 직원 15명 (직원 5명, 공무직 3명 기간제 7명)</t>
+  </si>
+  <si>
+    <t>2019년 6월 사업소 서울식물원 식물연구과 업무추진비 - 부서운영</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/18043756</t>
+  </si>
+  <si>
+    <t>서울식물원</t>
+  </si>
+  <si>
+    <t>식물연구과</t>
+  </si>
+  <si>
+    <t>서울식물원 식물연구과</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:46</t>
+  </si>
+  <si>
+    <t>양천골용대리황태세상 (서울시 강서구 양천로)</t>
+  </si>
+  <si>
+    <t>직원 격려 식사</t>
+  </si>
+  <si>
+    <t>식물연구과장 외 4명</t>
+  </si>
+  <si>
     <t>2019년 6월 서울역사박물관 유물관리과 업무추진비 내역</t>
   </si>
   <si>
     <t>http://opengov.seoul.go.kr/public/17993918</t>
   </si>
   <si>
-    <t>사업소</t>
-  </si>
-  <si>
-    <t>서울역사박물관</t>
-  </si>
-  <si>
-    <t>학예연구부</t>
-  </si>
-  <si>
     <t>유물관리과</t>
   </si>
   <si>
@@ -108,9 +1527,6 @@
   </si>
   <si>
     <t>유물관리과장 한은희외 8명</t>
-  </si>
-  <si>
-    <t>카드</t>
   </si>
   <si>
     <t>홈플러스 광화문점</t>
@@ -452,7 +1868,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +1940,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>17993918</v>
+        <v>18135063</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -541,9 +1957,7 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
+      <c r="G2"/>
       <c r="H2"/>
       <c r="I2">
         <v>2019</v>
@@ -551,38 +1965,34 @@
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2">
-        <v>175000</v>
-      </c>
-      <c r="L2">
-        <v>175000</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
       <c r="T2">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>17993918</v>
+        <v>18135063</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -599,9 +2009,7 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G3"/>
       <c r="H3"/>
       <c r="I3">
         <v>2019</v>
@@ -609,32 +2017,6036 @@
       <c r="J3">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>175000</v>
-      </c>
-      <c r="L3">
-        <v>175000</v>
-      </c>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
         <v>32</v>
       </c>
       <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
       <c r="T3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>18135063</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4">
+        <v>2019</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>18135063</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5">
+        <v>2019</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>244200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>18135063</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6">
+        <v>2019</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>18135063</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7">
+        <v>2019</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7">
+        <v>193000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>18135063</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8">
+        <v>2019</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8">
+        <v>404000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>18135063</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9">
+        <v>2019</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>18135063</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10">
+        <v>2019</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>18135063</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11">
+        <v>2019</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11">
+        <v>105900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>18135063</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12">
+        <v>2019</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12">
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>18135063</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13">
+        <v>2019</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>18135063</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14">
+        <v>2019</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>18135063</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15">
+        <v>2019</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15">
+        <v>452000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>18135063</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16">
+        <v>2019</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>18135063</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17">
+        <v>2019</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>18135063</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18">
+        <v>2019</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>18135063</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19">
+        <v>2019</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" t="s">
+        <v>87</v>
+      </c>
+      <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19">
+        <v>323100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>18135063</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20">
+        <v>2019</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20">
+        <v>100520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>18135063</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21">
+        <v>2019</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21">
+        <v>173902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>18135063</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22">
+        <v>2019</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22">
+        <v>104129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>18134439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23">
+        <v>2019</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" t="s">
+        <v>107</v>
+      </c>
+      <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>18134439</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24">
+        <v>2019</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>106</v>
+      </c>
+      <c r="R24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>18134439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25">
+        <v>2019</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>18124320</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26">
+        <v>2019</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>18124320</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27">
+        <v>2019</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" t="s">
+        <v>124</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>18124320</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28">
+        <v>2019</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R28" t="s">
+        <v>128</v>
+      </c>
+      <c r="S28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>18124320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29">
+        <v>2019</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>18124320</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30">
+        <v>2019</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>135</v>
+      </c>
+      <c r="R30" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>18124320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31">
+        <v>2019</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O31" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>139</v>
+      </c>
+      <c r="R31" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>18124320</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32">
+        <v>2019</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>143</v>
+      </c>
+      <c r="R32" t="s">
+        <v>144</v>
+      </c>
+      <c r="S32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>18124320</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33">
+        <v>2019</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>147</v>
+      </c>
+      <c r="R33" t="s">
+        <v>148</v>
+      </c>
+      <c r="S33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>18124320</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34">
+        <v>2019</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>151</v>
+      </c>
+      <c r="R34" t="s">
+        <v>152</v>
+      </c>
+      <c r="S34" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>18124320</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35">
+        <v>2019</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35" t="s">
+        <v>116</v>
+      </c>
+      <c r="O35" t="s">
+        <v>153</v>
+      </c>
+      <c r="P35" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>155</v>
+      </c>
+      <c r="R35" t="s">
+        <v>152</v>
+      </c>
+      <c r="S35" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <v>18124320</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36">
+        <v>2019</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36" t="s">
+        <v>116</v>
+      </c>
+      <c r="O36" t="s">
+        <v>156</v>
+      </c>
+      <c r="P36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>158</v>
+      </c>
+      <c r="R36" t="s">
+        <v>159</v>
+      </c>
+      <c r="S36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36">
+        <v>56200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>18124320</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37">
+        <v>2019</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37" t="s">
+        <v>116</v>
+      </c>
+      <c r="O37" t="s">
+        <v>160</v>
+      </c>
+      <c r="P37" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>162</v>
+      </c>
+      <c r="R37" t="s">
+        <v>163</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>18124320</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38">
+        <v>2019</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38" t="s">
+        <v>116</v>
+      </c>
+      <c r="O38" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>166</v>
+      </c>
+      <c r="R38" t="s">
+        <v>148</v>
+      </c>
+      <c r="S38" t="s">
+        <v>38</v>
+      </c>
+      <c r="T38">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>18124320</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39">
+        <v>2019</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39" t="s">
+        <v>116</v>
+      </c>
+      <c r="O39" t="s">
+        <v>167</v>
+      </c>
+      <c r="P39" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>169</v>
+      </c>
+      <c r="R39" t="s">
+        <v>170</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39">
+        <v>157000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <v>18124320</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40">
+        <v>2019</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40" t="s">
+        <v>116</v>
+      </c>
+      <c r="O40" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>173</v>
+      </c>
+      <c r="R40" t="s">
+        <v>174</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
+        <v>18124320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41">
+        <v>2019</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41" t="s">
+        <v>116</v>
+      </c>
+      <c r="O41" t="s">
+        <v>175</v>
+      </c>
+      <c r="P41" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>177</v>
+      </c>
+      <c r="R41" t="s">
+        <v>178</v>
+      </c>
+      <c r="S41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T41">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <v>18124320</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42">
+        <v>2019</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42" t="s">
+        <v>116</v>
+      </c>
+      <c r="O42" t="s">
+        <v>179</v>
+      </c>
+      <c r="P42" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>181</v>
+      </c>
+      <c r="R42" t="s">
+        <v>182</v>
+      </c>
+      <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42">
+        <v>271000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <v>18124320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43">
+        <v>2019</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43" t="s">
+        <v>116</v>
+      </c>
+      <c r="O43" t="s">
+        <v>175</v>
+      </c>
+      <c r="P43" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>184</v>
+      </c>
+      <c r="R43" t="s">
+        <v>140</v>
+      </c>
+      <c r="S43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <v>18124320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44">
+        <v>2019</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44" t="s">
+        <v>116</v>
+      </c>
+      <c r="O44" t="s">
+        <v>185</v>
+      </c>
+      <c r="P44" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>187</v>
+      </c>
+      <c r="R44" t="s">
+        <v>148</v>
+      </c>
+      <c r="S44" t="s">
+        <v>38</v>
+      </c>
+      <c r="T44">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <v>18124320</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45">
+        <v>2019</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45" t="s">
+        <v>116</v>
+      </c>
+      <c r="O45" t="s">
+        <v>188</v>
+      </c>
+      <c r="P45" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>190</v>
+      </c>
+      <c r="R45" t="s">
+        <v>191</v>
+      </c>
+      <c r="S45" t="s">
+        <v>38</v>
+      </c>
+      <c r="T45">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
+        <v>18124320</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46">
+        <v>2019</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46" t="s">
+        <v>116</v>
+      </c>
+      <c r="O46" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>194</v>
+      </c>
+      <c r="R46" t="s">
+        <v>195</v>
+      </c>
+      <c r="S46" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <v>18124320</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47">
+        <v>2019</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47" t="s">
+        <v>116</v>
+      </c>
+      <c r="O47" t="s">
+        <v>196</v>
+      </c>
+      <c r="P47" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>198</v>
+      </c>
+      <c r="R47" t="s">
+        <v>199</v>
+      </c>
+      <c r="S47" t="s">
+        <v>38</v>
+      </c>
+      <c r="T47">
+        <v>83300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <v>18124320</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48">
+        <v>2019</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48" t="s">
+        <v>116</v>
+      </c>
+      <c r="O48" t="s">
+        <v>200</v>
+      </c>
+      <c r="P48" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>202</v>
+      </c>
+      <c r="R48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S48" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <v>18124320</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49">
+        <v>2019</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49" t="s">
+        <v>116</v>
+      </c>
+      <c r="O49" t="s">
+        <v>204</v>
+      </c>
+      <c r="P49" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>206</v>
+      </c>
+      <c r="R49" t="s">
+        <v>207</v>
+      </c>
+      <c r="S49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T49">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <v>18124320</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50">
+        <v>2019</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50" t="s">
+        <v>116</v>
+      </c>
+      <c r="O50" t="s">
+        <v>208</v>
+      </c>
+      <c r="P50" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>210</v>
+      </c>
+      <c r="R50" t="s">
+        <v>211</v>
+      </c>
+      <c r="S50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T50">
+        <v>116500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
+        <v>18124320</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51">
+        <v>2019</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51" t="s">
+        <v>116</v>
+      </c>
+      <c r="O51" t="s">
+        <v>212</v>
+      </c>
+      <c r="P51" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>214</v>
+      </c>
+      <c r="R51" t="s">
+        <v>215</v>
+      </c>
+      <c r="S51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T51">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <v>18124320</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52">
+        <v>2019</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52" t="s">
+        <v>116</v>
+      </c>
+      <c r="O52" t="s">
+        <v>216</v>
+      </c>
+      <c r="P52" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>218</v>
+      </c>
+      <c r="R52" t="s">
+        <v>219</v>
+      </c>
+      <c r="S52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T52">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>18124320</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53">
+        <v>2019</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53" t="s">
+        <v>116</v>
+      </c>
+      <c r="O53" t="s">
+        <v>220</v>
+      </c>
+      <c r="P53" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>222</v>
+      </c>
+      <c r="R53" t="s">
+        <v>223</v>
+      </c>
+      <c r="S53" t="s">
+        <v>38</v>
+      </c>
+      <c r="T53">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54">
+        <v>18124320</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54">
+        <v>2019</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54" t="s">
+        <v>116</v>
+      </c>
+      <c r="O54" t="s">
+        <v>224</v>
+      </c>
+      <c r="P54" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>226</v>
+      </c>
+      <c r="R54" t="s">
+        <v>227</v>
+      </c>
+      <c r="S54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T54">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <v>18124320</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55">
+        <v>2019</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55" t="s">
+        <v>116</v>
+      </c>
+      <c r="O55" t="s">
+        <v>228</v>
+      </c>
+      <c r="P55" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>230</v>
+      </c>
+      <c r="R55" t="s">
+        <v>231</v>
+      </c>
+      <c r="S55" t="s">
+        <v>38</v>
+      </c>
+      <c r="T55">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
+        <v>18124320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56">
+        <v>2019</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" t="s">
+        <v>228</v>
+      </c>
+      <c r="P56" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>233</v>
+      </c>
+      <c r="R56" t="s">
+        <v>234</v>
+      </c>
+      <c r="S56" t="s">
+        <v>38</v>
+      </c>
+      <c r="T56">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>18124320</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57">
+        <v>2019</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57" t="s">
+        <v>116</v>
+      </c>
+      <c r="O57" t="s">
+        <v>235</v>
+      </c>
+      <c r="P57" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>184</v>
+      </c>
+      <c r="R57" t="s">
+        <v>152</v>
+      </c>
+      <c r="S57" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>18124319</v>
+      </c>
+      <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" t="s">
+        <v>240</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58">
+        <v>2019</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58" t="s">
+        <v>240</v>
+      </c>
+      <c r="O58" t="s">
+        <v>241</v>
+      </c>
+      <c r="P58" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>243</v>
+      </c>
+      <c r="R58" t="s">
+        <v>244</v>
+      </c>
+      <c r="S58" t="s">
+        <v>38</v>
+      </c>
+      <c r="T58">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>18124319</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59">
+        <v>2019</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59" t="s">
+        <v>240</v>
+      </c>
+      <c r="O59" t="s">
+        <v>245</v>
+      </c>
+      <c r="P59" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>247</v>
+      </c>
+      <c r="R59" t="s">
+        <v>248</v>
+      </c>
+      <c r="S59" t="s">
+        <v>38</v>
+      </c>
+      <c r="T59">
+        <v>52190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>18124319</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60">
+        <v>2019</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60" t="s">
+        <v>240</v>
+      </c>
+      <c r="O60" t="s">
+        <v>249</v>
+      </c>
+      <c r="P60" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>251</v>
+      </c>
+      <c r="R60" t="s">
+        <v>248</v>
+      </c>
+      <c r="S60" t="s">
+        <v>38</v>
+      </c>
+      <c r="T60">
+        <v>189900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <v>18124319</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61">
+        <v>2019</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61" t="s">
+        <v>240</v>
+      </c>
+      <c r="O61" t="s">
+        <v>252</v>
+      </c>
+      <c r="P61" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>254</v>
+      </c>
+      <c r="R61" t="s">
+        <v>255</v>
+      </c>
+      <c r="S61" t="s">
+        <v>38</v>
+      </c>
+      <c r="T61">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>18124319</v>
+      </c>
+      <c r="B62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F62" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62">
+        <v>2019</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62" t="s">
+        <v>240</v>
+      </c>
+      <c r="O62" t="s">
+        <v>256</v>
+      </c>
+      <c r="P62" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>258</v>
+      </c>
+      <c r="R62" t="s">
+        <v>259</v>
+      </c>
+      <c r="S62" t="s">
+        <v>38</v>
+      </c>
+      <c r="T62">
+        <v>60900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>18124319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63">
+        <v>2019</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63" t="s">
+        <v>240</v>
+      </c>
+      <c r="O63" t="s">
+        <v>260</v>
+      </c>
+      <c r="P63" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>262</v>
+      </c>
+      <c r="R63" t="s">
+        <v>263</v>
+      </c>
+      <c r="S63" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>18124319</v>
+      </c>
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" t="s">
+        <v>240</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64">
+        <v>2019</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64" t="s">
+        <v>240</v>
+      </c>
+      <c r="O64" t="s">
+        <v>264</v>
+      </c>
+      <c r="P64" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>266</v>
+      </c>
+      <c r="R64" t="s">
+        <v>267</v>
+      </c>
+      <c r="S64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T64">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65">
+        <v>18124319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65">
+        <v>2019</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65" t="s">
+        <v>240</v>
+      </c>
+      <c r="O65" t="s">
+        <v>268</v>
+      </c>
+      <c r="P65" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>270</v>
+      </c>
+      <c r="R65" t="s">
+        <v>271</v>
+      </c>
+      <c r="S65" t="s">
+        <v>38</v>
+      </c>
+      <c r="T65">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66">
+        <v>18124319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66">
+        <v>2019</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66" t="s">
+        <v>240</v>
+      </c>
+      <c r="O66" t="s">
+        <v>272</v>
+      </c>
+      <c r="P66" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>274</v>
+      </c>
+      <c r="R66" t="s">
+        <v>263</v>
+      </c>
+      <c r="S66" t="s">
+        <v>38</v>
+      </c>
+      <c r="T66">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67">
+        <v>18124319</v>
+      </c>
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67">
+        <v>2019</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67" t="s">
+        <v>240</v>
+      </c>
+      <c r="O67" t="s">
+        <v>275</v>
+      </c>
+      <c r="P67" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>276</v>
+      </c>
+      <c r="R67" t="s">
+        <v>277</v>
+      </c>
+      <c r="S67" t="s">
+        <v>38</v>
+      </c>
+      <c r="T67">
+        <v>70840</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68">
+        <v>18124319</v>
+      </c>
+      <c r="B68" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68">
+        <v>2019</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68" t="s">
+        <v>240</v>
+      </c>
+      <c r="O68" t="s">
+        <v>278</v>
+      </c>
+      <c r="P68" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>280</v>
+      </c>
+      <c r="R68" t="s">
+        <v>281</v>
+      </c>
+      <c r="S68" t="s">
+        <v>38</v>
+      </c>
+      <c r="T68">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69">
+        <v>18124318</v>
+      </c>
+      <c r="B69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" t="s">
+        <v>285</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69">
+        <v>2019</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69" t="s">
+        <v>284</v>
+      </c>
+      <c r="O69" t="s">
+        <v>286</v>
+      </c>
+      <c r="P69" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>288</v>
+      </c>
+      <c r="R69" t="s">
+        <v>289</v>
+      </c>
+      <c r="S69" t="s">
+        <v>38</v>
+      </c>
+      <c r="T69">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70">
+        <v>18124318</v>
+      </c>
+      <c r="B70" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70">
+        <v>2019</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70" t="s">
+        <v>284</v>
+      </c>
+      <c r="O70" t="s">
+        <v>117</v>
+      </c>
+      <c r="P70" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>291</v>
+      </c>
+      <c r="R70" t="s">
+        <v>292</v>
+      </c>
+      <c r="S70" t="s">
+        <v>38</v>
+      </c>
+      <c r="T70">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71">
+        <v>18124318</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71">
+        <v>2019</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71" t="s">
+        <v>284</v>
+      </c>
+      <c r="O71" t="s">
+        <v>293</v>
+      </c>
+      <c r="P71" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>295</v>
+      </c>
+      <c r="R71" t="s">
+        <v>296</v>
+      </c>
+      <c r="S71" t="s">
+        <v>38</v>
+      </c>
+      <c r="T71">
+        <v>135750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72">
+        <v>18124318</v>
+      </c>
+      <c r="B72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72">
+        <v>2019</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72" t="s">
+        <v>284</v>
+      </c>
+      <c r="O72" t="s">
+        <v>297</v>
+      </c>
+      <c r="P72" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>299</v>
+      </c>
+      <c r="R72" t="s">
+        <v>300</v>
+      </c>
+      <c r="S72" t="s">
+        <v>38</v>
+      </c>
+      <c r="T72">
+        <v>262000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73">
+        <v>18124318</v>
+      </c>
+      <c r="B73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>284</v>
+      </c>
+      <c r="F73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73">
+        <v>2019</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73" t="s">
+        <v>284</v>
+      </c>
+      <c r="O73" t="s">
+        <v>301</v>
+      </c>
+      <c r="P73" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>303</v>
+      </c>
+      <c r="R73" t="s">
+        <v>304</v>
+      </c>
+      <c r="S73" t="s">
+        <v>38</v>
+      </c>
+      <c r="T73">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74">
+        <v>18124318</v>
+      </c>
+      <c r="B74" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74">
+        <v>2019</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74" t="s">
+        <v>284</v>
+      </c>
+      <c r="O74" t="s">
+        <v>305</v>
+      </c>
+      <c r="P74" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>307</v>
+      </c>
+      <c r="R74" t="s">
+        <v>304</v>
+      </c>
+      <c r="S74" t="s">
+        <v>38</v>
+      </c>
+      <c r="T74">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75">
+        <v>18124318</v>
+      </c>
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" t="s">
+        <v>285</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75">
+        <v>2019</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75" t="s">
+        <v>284</v>
+      </c>
+      <c r="O75" t="s">
+        <v>153</v>
+      </c>
+      <c r="P75" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>295</v>
+      </c>
+      <c r="R75" t="s">
+        <v>292</v>
+      </c>
+      <c r="S75" t="s">
+        <v>38</v>
+      </c>
+      <c r="T75">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76">
+        <v>18124318</v>
+      </c>
+      <c r="B76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76">
+        <v>2019</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76" t="s">
+        <v>284</v>
+      </c>
+      <c r="O76" t="s">
+        <v>309</v>
+      </c>
+      <c r="P76" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>311</v>
+      </c>
+      <c r="R76" t="s">
+        <v>312</v>
+      </c>
+      <c r="S76" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77">
+        <v>18124318</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" t="s">
+        <v>285</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77">
+        <v>2019</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77" t="s">
+        <v>284</v>
+      </c>
+      <c r="O77" t="s">
+        <v>313</v>
+      </c>
+      <c r="P77" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>315</v>
+      </c>
+      <c r="R77" t="s">
+        <v>316</v>
+      </c>
+      <c r="S77" t="s">
+        <v>38</v>
+      </c>
+      <c r="T77">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78">
+        <v>18124318</v>
+      </c>
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78" t="s">
+        <v>285</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78">
+        <v>2019</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78" t="s">
+        <v>284</v>
+      </c>
+      <c r="O78" t="s">
+        <v>317</v>
+      </c>
+      <c r="P78" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>319</v>
+      </c>
+      <c r="R78" t="s">
+        <v>320</v>
+      </c>
+      <c r="S78" t="s">
+        <v>38</v>
+      </c>
+      <c r="T78">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79">
+        <v>18124318</v>
+      </c>
+      <c r="B79" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" t="s">
+        <v>285</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79">
+        <v>2019</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79" t="s">
+        <v>284</v>
+      </c>
+      <c r="O79" t="s">
+        <v>321</v>
+      </c>
+      <c r="P79" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>323</v>
+      </c>
+      <c r="R79" t="s">
+        <v>292</v>
+      </c>
+      <c r="S79" t="s">
+        <v>38</v>
+      </c>
+      <c r="T79">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80">
+        <v>18124318</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" t="s">
+        <v>285</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80">
+        <v>2019</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80" t="s">
+        <v>284</v>
+      </c>
+      <c r="O80" t="s">
+        <v>324</v>
+      </c>
+      <c r="P80" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>291</v>
+      </c>
+      <c r="R80" t="s">
+        <v>326</v>
+      </c>
+      <c r="S80" t="s">
+        <v>38</v>
+      </c>
+      <c r="T80">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81">
+        <v>18124318</v>
+      </c>
+      <c r="B81" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" t="s">
+        <v>284</v>
+      </c>
+      <c r="F81" t="s">
+        <v>285</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81">
+        <v>2019</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81" t="s">
+        <v>284</v>
+      </c>
+      <c r="O81" t="s">
+        <v>327</v>
+      </c>
+      <c r="P81" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>311</v>
+      </c>
+      <c r="R81" t="s">
+        <v>328</v>
+      </c>
+      <c r="S81" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82">
+        <v>18124318</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" t="s">
+        <v>285</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82">
+        <v>2019</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82" t="s">
+        <v>284</v>
+      </c>
+      <c r="O82" t="s">
+        <v>235</v>
+      </c>
+      <c r="P82" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>330</v>
+      </c>
+      <c r="R82" t="s">
+        <v>304</v>
+      </c>
+      <c r="S82" t="s">
+        <v>38</v>
+      </c>
+      <c r="T82">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83">
+        <v>18124317</v>
+      </c>
+      <c r="B83" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" t="s">
+        <v>334</v>
+      </c>
+      <c r="G83" t="s">
+        <v>335</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83">
+        <v>2019</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83" t="s">
+        <v>336</v>
+      </c>
+      <c r="O83" t="s">
+        <v>337</v>
+      </c>
+      <c r="P83" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>339</v>
+      </c>
+      <c r="R83" t="s">
+        <v>340</v>
+      </c>
+      <c r="S83" t="s">
+        <v>38</v>
+      </c>
+      <c r="T83">
+        <v>230750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84">
+        <v>18124317</v>
+      </c>
+      <c r="B84" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" t="s">
+        <v>335</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84">
+        <v>2019</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84" t="s">
+        <v>336</v>
+      </c>
+      <c r="O84" t="s">
+        <v>341</v>
+      </c>
+      <c r="P84" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>339</v>
+      </c>
+      <c r="R84" t="s">
+        <v>342</v>
+      </c>
+      <c r="S84" t="s">
+        <v>38</v>
+      </c>
+      <c r="T84">
+        <v>408470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85">
+        <v>18124315</v>
+      </c>
+      <c r="B85" t="s">
+        <v>343</v>
+      </c>
+      <c r="C85" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85">
+        <v>2019</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85" t="s">
+        <v>346</v>
+      </c>
+      <c r="O85" t="s">
+        <v>347</v>
+      </c>
+      <c r="P85" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>349</v>
+      </c>
+      <c r="R85" t="s">
+        <v>350</v>
+      </c>
+      <c r="S85" t="s">
+        <v>38</v>
+      </c>
+      <c r="T85">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86">
+        <v>18124315</v>
+      </c>
+      <c r="B86" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" t="s">
+        <v>344</v>
+      </c>
+      <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" t="s">
+        <v>345</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86">
+        <v>2019</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86" t="s">
+        <v>346</v>
+      </c>
+      <c r="O86" t="s">
+        <v>351</v>
+      </c>
+      <c r="P86" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>353</v>
+      </c>
+      <c r="R86" t="s">
+        <v>350</v>
+      </c>
+      <c r="S86" t="s">
+        <v>38</v>
+      </c>
+      <c r="T86">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87">
+        <v>18124315</v>
+      </c>
+      <c r="B87" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s">
+        <v>345</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87">
+        <v>2019</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87" t="s">
+        <v>346</v>
+      </c>
+      <c r="O87" t="s">
+        <v>354</v>
+      </c>
+      <c r="P87" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>356</v>
+      </c>
+      <c r="R87" t="s">
+        <v>350</v>
+      </c>
+      <c r="S87" t="s">
+        <v>38</v>
+      </c>
+      <c r="T87">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88">
+        <v>18124315</v>
+      </c>
+      <c r="B88" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88">
+        <v>2019</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88" t="s">
+        <v>357</v>
+      </c>
+      <c r="O88" t="s">
+        <v>358</v>
+      </c>
+      <c r="P88" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>360</v>
+      </c>
+      <c r="R88" t="s">
+        <v>361</v>
+      </c>
+      <c r="S88" t="s">
+        <v>38</v>
+      </c>
+      <c r="T88">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89">
+        <v>18124315</v>
+      </c>
+      <c r="B89" t="s">
+        <v>343</v>
+      </c>
+      <c r="C89" t="s">
+        <v>344</v>
+      </c>
+      <c r="D89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" t="s">
+        <v>345</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89">
+        <v>2019</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89" t="s">
+        <v>357</v>
+      </c>
+      <c r="O89" t="s">
+        <v>362</v>
+      </c>
+      <c r="P89" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>360</v>
+      </c>
+      <c r="R89" t="s">
+        <v>364</v>
+      </c>
+      <c r="S89" t="s">
+        <v>38</v>
+      </c>
+      <c r="T89">
+        <v>93320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90">
+        <v>18124315</v>
+      </c>
+      <c r="B90" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" t="s">
+        <v>345</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90">
+        <v>2019</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90" t="s">
+        <v>365</v>
+      </c>
+      <c r="O90" t="s">
+        <v>366</v>
+      </c>
+      <c r="P90" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>368</v>
+      </c>
+      <c r="R90" t="s">
+        <v>369</v>
+      </c>
+      <c r="S90" t="s">
+        <v>38</v>
+      </c>
+      <c r="T90">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91">
+        <v>18124315</v>
+      </c>
+      <c r="B91" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>345</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91">
+        <v>2019</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91" t="s">
+        <v>370</v>
+      </c>
+      <c r="O91" t="s">
+        <v>371</v>
+      </c>
+      <c r="P91" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>373</v>
+      </c>
+      <c r="R91" t="s">
+        <v>374</v>
+      </c>
+      <c r="S91" t="s">
+        <v>38</v>
+      </c>
+      <c r="T91">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92">
+        <v>18124315</v>
+      </c>
+      <c r="B92" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" t="s">
+        <v>344</v>
+      </c>
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" t="s">
+        <v>345</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92">
+        <v>2019</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92" t="s">
+        <v>370</v>
+      </c>
+      <c r="O92" t="s">
+        <v>375</v>
+      </c>
+      <c r="P92" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>377</v>
+      </c>
+      <c r="R92" t="s">
+        <v>378</v>
+      </c>
+      <c r="S92" t="s">
+        <v>38</v>
+      </c>
+      <c r="T92">
+        <v>298000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93">
+        <v>18124315</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D93" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" t="s">
+        <v>345</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93">
+        <v>2019</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93" t="s">
+        <v>370</v>
+      </c>
+      <c r="O93" t="s">
+        <v>379</v>
+      </c>
+      <c r="P93" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>381</v>
+      </c>
+      <c r="R93" t="s">
+        <v>378</v>
+      </c>
+      <c r="S93" t="s">
+        <v>38</v>
+      </c>
+      <c r="T93">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94">
+        <v>18124315</v>
+      </c>
+      <c r="B94" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" t="s">
+        <v>345</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94">
+        <v>2019</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94" t="s">
+        <v>382</v>
+      </c>
+      <c r="O94" t="s">
+        <v>383</v>
+      </c>
+      <c r="P94" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>381</v>
+      </c>
+      <c r="R94" t="s">
+        <v>385</v>
+      </c>
+      <c r="S94" t="s">
+        <v>38</v>
+      </c>
+      <c r="T94">
+        <v>318900</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95">
+        <v>18124315</v>
+      </c>
+      <c r="B95" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" t="s">
+        <v>345</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95">
+        <v>2019</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95" t="s">
+        <v>346</v>
+      </c>
+      <c r="O95" t="s">
+        <v>386</v>
+      </c>
+      <c r="P95" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>388</v>
+      </c>
+      <c r="R95" t="s">
+        <v>389</v>
+      </c>
+      <c r="S95" t="s">
+        <v>38</v>
+      </c>
+      <c r="T95">
+        <v>60100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96">
+        <v>18124315</v>
+      </c>
+      <c r="B96" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" t="s">
+        <v>344</v>
+      </c>
+      <c r="D96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" t="s">
+        <v>345</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96">
+        <v>2019</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96" t="s">
+        <v>346</v>
+      </c>
+      <c r="O96" t="s">
+        <v>390</v>
+      </c>
+      <c r="P96" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>392</v>
+      </c>
+      <c r="R96" t="s">
+        <v>393</v>
+      </c>
+      <c r="S96" t="s">
+        <v>38</v>
+      </c>
+      <c r="T96">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97">
+        <v>18124315</v>
+      </c>
+      <c r="B97" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" t="s">
+        <v>344</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" t="s">
+        <v>345</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97">
+        <v>2019</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97" t="s">
+        <v>346</v>
+      </c>
+      <c r="O97" t="s">
+        <v>394</v>
+      </c>
+      <c r="P97" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>396</v>
+      </c>
+      <c r="R97" t="s">
+        <v>397</v>
+      </c>
+      <c r="S97" t="s">
+        <v>38</v>
+      </c>
+      <c r="T97">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98">
+        <v>18124315</v>
+      </c>
+      <c r="B98" t="s">
+        <v>343</v>
+      </c>
+      <c r="C98" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" t="s">
+        <v>345</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98">
+        <v>2019</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
+      </c>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98" t="s">
+        <v>346</v>
+      </c>
+      <c r="O98" t="s">
+        <v>398</v>
+      </c>
+      <c r="P98" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>400</v>
+      </c>
+      <c r="R98" t="s">
+        <v>397</v>
+      </c>
+      <c r="S98" t="s">
+        <v>38</v>
+      </c>
+      <c r="T98">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99">
+        <v>18124315</v>
+      </c>
+      <c r="B99" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" t="s">
+        <v>345</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99">
+        <v>2019</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99" t="s">
+        <v>346</v>
+      </c>
+      <c r="O99" t="s">
+        <v>401</v>
+      </c>
+      <c r="P99" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>403</v>
+      </c>
+      <c r="R99" t="s">
+        <v>404</v>
+      </c>
+      <c r="S99" t="s">
+        <v>38</v>
+      </c>
+      <c r="T99">
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100">
+        <v>18124315</v>
+      </c>
+      <c r="B100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" t="s">
+        <v>345</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100">
+        <v>2019</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100" t="s">
+        <v>346</v>
+      </c>
+      <c r="O100" t="s">
+        <v>405</v>
+      </c>
+      <c r="P100" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>407</v>
+      </c>
+      <c r="R100" t="s">
+        <v>408</v>
+      </c>
+      <c r="S100" t="s">
+        <v>38</v>
+      </c>
+      <c r="T100">
+        <v>226000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101">
+        <v>18124315</v>
+      </c>
+      <c r="B101" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" t="s">
+        <v>344</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" t="s">
+        <v>345</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101">
+        <v>2019</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
+      </c>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101" t="s">
+        <v>346</v>
+      </c>
+      <c r="O101" t="s">
+        <v>409</v>
+      </c>
+      <c r="P101" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>411</v>
+      </c>
+      <c r="R101" t="s">
+        <v>397</v>
+      </c>
+      <c r="S101" t="s">
+        <v>38</v>
+      </c>
+      <c r="T101">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102">
+        <v>18124314</v>
+      </c>
+      <c r="B102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" t="s">
+        <v>414</v>
+      </c>
+      <c r="F102" t="s">
+        <v>415</v>
+      </c>
+      <c r="G102" t="s">
+        <v>416</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102">
+        <v>2019</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
+      </c>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102" t="s">
+        <v>417</v>
+      </c>
+      <c r="O102" t="s">
+        <v>418</v>
+      </c>
+      <c r="P102" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>420</v>
+      </c>
+      <c r="R102" t="s">
+        <v>421</v>
+      </c>
+      <c r="S102" t="s">
+        <v>38</v>
+      </c>
+      <c r="T102">
+        <v>291260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103">
+        <v>18113746</v>
+      </c>
+      <c r="B103" t="s">
+        <v>422</v>
+      </c>
+      <c r="C103" t="s">
+        <v>423</v>
+      </c>
+      <c r="D103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" t="s">
+        <v>424</v>
+      </c>
+      <c r="F103" t="s">
+        <v>425</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103">
+        <v>2019</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
+      </c>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103" t="s">
+        <v>426</v>
+      </c>
+      <c r="O103" t="s">
+        <v>427</v>
+      </c>
+      <c r="P103" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>429</v>
+      </c>
+      <c r="R103" t="s">
+        <v>430</v>
+      </c>
+      <c r="S103" t="s">
+        <v>38</v>
+      </c>
+      <c r="T103">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104">
+        <v>18113746</v>
+      </c>
+      <c r="B104" t="s">
+        <v>422</v>
+      </c>
+      <c r="C104" t="s">
+        <v>423</v>
+      </c>
+      <c r="D104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" t="s">
+        <v>424</v>
+      </c>
+      <c r="F104" t="s">
+        <v>425</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104">
+        <v>2019</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104" t="s">
+        <v>426</v>
+      </c>
+      <c r="O104" t="s">
+        <v>431</v>
+      </c>
+      <c r="P104" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>433</v>
+      </c>
+      <c r="R104" t="s">
+        <v>430</v>
+      </c>
+      <c r="S104" t="s">
+        <v>38</v>
+      </c>
+      <c r="T104">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105">
+        <v>18113746</v>
+      </c>
+      <c r="B105" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105">
+        <v>2019</v>
+      </c>
+      <c r="J105">
+        <v>6</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105" t="s">
+        <v>426</v>
+      </c>
+      <c r="O105" t="s">
+        <v>188</v>
+      </c>
+      <c r="P105" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>435</v>
+      </c>
+      <c r="R105" t="s">
+        <v>436</v>
+      </c>
+      <c r="S105" t="s">
+        <v>38</v>
+      </c>
+      <c r="T105">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106">
+        <v>18113746</v>
+      </c>
+      <c r="B106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C106" t="s">
+        <v>423</v>
+      </c>
+      <c r="D106" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" t="s">
+        <v>424</v>
+      </c>
+      <c r="F106" t="s">
+        <v>425</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106">
+        <v>2019</v>
+      </c>
+      <c r="J106">
+        <v>6</v>
+      </c>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106" t="s">
+        <v>426</v>
+      </c>
+      <c r="O106" t="s">
+        <v>437</v>
+      </c>
+      <c r="P106" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>439</v>
+      </c>
+      <c r="R106" t="s">
+        <v>440</v>
+      </c>
+      <c r="S106" t="s">
+        <v>38</v>
+      </c>
+      <c r="T106">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107">
+        <v>18113746</v>
+      </c>
+      <c r="B107" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" t="s">
+        <v>424</v>
+      </c>
+      <c r="F107" t="s">
+        <v>425</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107">
+        <v>2019</v>
+      </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107" t="s">
+        <v>426</v>
+      </c>
+      <c r="O107" t="s">
+        <v>441</v>
+      </c>
+      <c r="P107" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>443</v>
+      </c>
+      <c r="R107" t="s">
+        <v>444</v>
+      </c>
+      <c r="S107" t="s">
+        <v>38</v>
+      </c>
+      <c r="T107">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108">
+        <v>18113746</v>
+      </c>
+      <c r="B108" t="s">
+        <v>422</v>
+      </c>
+      <c r="C108" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" t="s">
+        <v>424</v>
+      </c>
+      <c r="F108" t="s">
+        <v>425</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108">
+        <v>2019</v>
+      </c>
+      <c r="J108">
+        <v>6</v>
+      </c>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108" t="s">
+        <v>426</v>
+      </c>
+      <c r="O108" t="s">
+        <v>409</v>
+      </c>
+      <c r="P108" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>446</v>
+      </c>
+      <c r="R108" t="s">
+        <v>444</v>
+      </c>
+      <c r="S108" t="s">
+        <v>38</v>
+      </c>
+      <c r="T108">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109">
+        <v>18113746</v>
+      </c>
+      <c r="B109" t="s">
+        <v>422</v>
+      </c>
+      <c r="C109" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" t="s">
+        <v>424</v>
+      </c>
+      <c r="F109" t="s">
+        <v>425</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109">
+        <v>2019</v>
+      </c>
+      <c r="J109">
+        <v>6</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109" t="s">
+        <v>426</v>
+      </c>
+      <c r="O109" t="s">
+        <v>447</v>
+      </c>
+      <c r="P109" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>449</v>
+      </c>
+      <c r="R109" t="s">
+        <v>440</v>
+      </c>
+      <c r="S109" t="s">
+        <v>38</v>
+      </c>
+      <c r="T109">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110">
+        <v>18104223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>450</v>
+      </c>
+      <c r="C110" t="s">
+        <v>451</v>
+      </c>
+      <c r="D110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110" t="s">
+        <v>452</v>
+      </c>
+      <c r="F110" t="s">
+        <v>453</v>
+      </c>
+      <c r="G110" t="s">
+        <v>454</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110">
+        <v>2019</v>
+      </c>
+      <c r="J110">
+        <v>6</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110" t="s">
+        <v>455</v>
+      </c>
+      <c r="O110" t="s">
+        <v>456</v>
+      </c>
+      <c r="P110" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>458</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110" t="s">
+        <v>38</v>
+      </c>
+      <c r="T110">
+        <v>109200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111">
+        <v>18104223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>450</v>
+      </c>
+      <c r="C111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" t="s">
+        <v>452</v>
+      </c>
+      <c r="F111" t="s">
+        <v>453</v>
+      </c>
+      <c r="G111" t="s">
+        <v>454</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111">
+        <v>2019</v>
+      </c>
+      <c r="J111">
+        <v>6</v>
+      </c>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111" t="s">
+        <v>455</v>
+      </c>
+      <c r="O111" t="s">
+        <v>459</v>
+      </c>
+      <c r="P111" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>461</v>
+      </c>
+      <c r="R111">
+        <v>13</v>
+      </c>
+      <c r="S111" t="s">
+        <v>38</v>
+      </c>
+      <c r="T111">
+        <v>112120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112">
+        <v>18104222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>462</v>
+      </c>
+      <c r="C112" t="s">
+        <v>463</v>
+      </c>
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" t="s">
+        <v>464</v>
+      </c>
+      <c r="F112" t="s">
+        <v>465</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112">
+        <v>2019</v>
+      </c>
+      <c r="J112">
+        <v>6</v>
+      </c>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112" t="s">
+        <v>466</v>
+      </c>
+      <c r="O112" t="s">
+        <v>467</v>
+      </c>
+      <c r="P112" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>469</v>
+      </c>
+      <c r="R112" t="s">
+        <v>470</v>
+      </c>
+      <c r="S112" t="s">
+        <v>38</v>
+      </c>
+      <c r="T112">
+        <v>108300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113">
+        <v>18104222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>462</v>
+      </c>
+      <c r="C113" t="s">
+        <v>463</v>
+      </c>
+      <c r="D113" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" t="s">
+        <v>464</v>
+      </c>
+      <c r="F113" t="s">
+        <v>465</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113">
+        <v>2019</v>
+      </c>
+      <c r="J113">
+        <v>6</v>
+      </c>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113" t="s">
+        <v>466</v>
+      </c>
+      <c r="O113" t="s">
+        <v>471</v>
+      </c>
+      <c r="P113" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>473</v>
+      </c>
+      <c r="R113" t="s">
+        <v>470</v>
+      </c>
+      <c r="S113" t="s">
+        <v>474</v>
+      </c>
+      <c r="T113">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114">
+        <v>18104222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C114" t="s">
+        <v>463</v>
+      </c>
+      <c r="D114" t="s">
+        <v>99</v>
+      </c>
+      <c r="E114" t="s">
+        <v>464</v>
+      </c>
+      <c r="F114" t="s">
+        <v>465</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114">
+        <v>2019</v>
+      </c>
+      <c r="J114">
+        <v>6</v>
+      </c>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114" t="s">
+        <v>466</v>
+      </c>
+      <c r="O114" t="s">
+        <v>475</v>
+      </c>
+      <c r="P114" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>477</v>
+      </c>
+      <c r="R114" t="s">
+        <v>470</v>
+      </c>
+      <c r="S114" t="s">
+        <v>474</v>
+      </c>
+      <c r="T114">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115">
+        <v>18082454</v>
+      </c>
+      <c r="B115" t="s">
+        <v>478</v>
+      </c>
+      <c r="C115" t="s">
+        <v>479</v>
+      </c>
+      <c r="D115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" t="s">
+        <v>480</v>
+      </c>
+      <c r="F115" t="s">
+        <v>481</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115">
+        <v>2019</v>
+      </c>
+      <c r="J115">
+        <v>6</v>
+      </c>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115" t="s">
+        <v>482</v>
+      </c>
+      <c r="O115" t="s">
+        <v>483</v>
+      </c>
+      <c r="P115" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>485</v>
+      </c>
+      <c r="R115" t="s">
+        <v>486</v>
+      </c>
+      <c r="S115" t="s">
+        <v>38</v>
+      </c>
+      <c r="T115">
+        <v>246770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116">
+        <v>18043756</v>
+      </c>
+      <c r="B116" t="s">
+        <v>487</v>
+      </c>
+      <c r="C116" t="s">
+        <v>488</v>
+      </c>
+      <c r="D116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116" t="s">
+        <v>489</v>
+      </c>
+      <c r="F116" t="s">
+        <v>490</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116">
+        <v>2019</v>
+      </c>
+      <c r="J116">
+        <v>6</v>
+      </c>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116" t="s">
+        <v>491</v>
+      </c>
+      <c r="O116" t="s">
+        <v>492</v>
+      </c>
+      <c r="P116" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>494</v>
+      </c>
+      <c r="R116" t="s">
+        <v>495</v>
+      </c>
+      <c r="S116" t="s">
+        <v>474</v>
+      </c>
+      <c r="T116">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117">
+        <v>17993918</v>
+      </c>
+      <c r="B117" t="s">
+        <v>496</v>
+      </c>
+      <c r="C117" t="s">
+        <v>497</v>
+      </c>
+      <c r="D117" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" t="s">
+        <v>333</v>
+      </c>
+      <c r="F117" t="s">
+        <v>334</v>
+      </c>
+      <c r="G117" t="s">
+        <v>498</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117">
+        <v>2019</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
+      </c>
+      <c r="K117">
+        <v>175000</v>
+      </c>
+      <c r="L117">
+        <v>175000</v>
+      </c>
+      <c r="M117"/>
+      <c r="N117" t="s">
+        <v>499</v>
+      </c>
+      <c r="O117" t="s">
+        <v>500</v>
+      </c>
+      <c r="P117" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>502</v>
+      </c>
+      <c r="R117" t="s">
+        <v>503</v>
+      </c>
+      <c r="S117" t="s">
+        <v>38</v>
+      </c>
+      <c r="T117">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118">
+        <v>17993918</v>
+      </c>
+      <c r="B118" t="s">
+        <v>496</v>
+      </c>
+      <c r="C118" t="s">
+        <v>497</v>
+      </c>
+      <c r="D118" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" t="s">
+        <v>333</v>
+      </c>
+      <c r="F118" t="s">
+        <v>334</v>
+      </c>
+      <c r="G118" t="s">
+        <v>498</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118">
+        <v>2019</v>
+      </c>
+      <c r="J118">
+        <v>6</v>
+      </c>
+      <c r="K118">
+        <v>175000</v>
+      </c>
+      <c r="L118">
+        <v>175000</v>
+      </c>
+      <c r="M118"/>
+      <c r="N118" t="s">
+        <v>499</v>
+      </c>
+      <c r="O118" t="s">
+        <v>500</v>
+      </c>
+      <c r="P118" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>502</v>
+      </c>
+      <c r="R118" t="s">
+        <v>503</v>
+      </c>
+      <c r="S118" t="s">
+        <v>38</v>
+      </c>
+      <c r="T118">
         <v>145000</v>
       </c>
     </row>
